--- a/MANAGER/Excel_template/Paper.xlsx
+++ b/MANAGER/Excel_template/Paper.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ky 9\Capstone\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieum\Desktop\FPT_Science\MANAGER\Excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Appendix1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>STT</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Số tiền</t>
+  </si>
+  <si>
+    <t>CMND</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +487,7 @@
     <col min="5" max="5" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,6 +502,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -508,10 +514,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +528,7 @@
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,9 +543,13 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>